--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>EXP</t>
   </si>
@@ -270,6 +270,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,15 +299,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,15 +616,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,15 +678,15 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -737,15 +737,15 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -783,15 +783,15 @@
       <c r="G14" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -831,15 +831,15 @@
       <c r="G19" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -875,15 +875,15 @@
       <c r="G24" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -917,15 +917,15 @@
       <c r="G29" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -937,7 +937,9 @@
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="9" t="s">
         <v>14</v>
       </c>
@@ -965,15 +967,15 @@
       <c r="G34" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>EXP</t>
   </si>
@@ -97,13 +97,22 @@
   </si>
   <si>
     <t>isot</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>public, friend, public</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +159,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -300,6 +316,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +630,7 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -760,7 +778,9 @@
       <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
@@ -769,7 +789,9 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
@@ -778,7 +800,9 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
@@ -946,7 +970,9 @@
       <c r="F32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>EXP</t>
   </si>
@@ -45,9 +45,6 @@
     <t>USER</t>
   </si>
   <si>
-    <t>O_TASK</t>
-  </si>
-  <si>
     <t>tid</t>
   </si>
   <si>
@@ -106,13 +103,19 @@
   </si>
   <si>
     <t>public, friend, public</t>
+  </si>
+  <si>
+    <t>ouid</t>
+  </si>
+  <si>
+    <t>TASK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +169,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,6 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -316,8 +351,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -621,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,15 +685,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,36 +747,38 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="A6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -755,31 +808,31 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="A11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
@@ -790,7 +843,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -801,37 +854,37 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
@@ -855,25 +908,25 @@
       <c r="G19" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -899,22 +952,22 @@
       <c r="G24" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -941,71 +994,71 @@
       <c r="G29" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>EXP</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>public, friend, public</t>
-  </si>
-  <si>
-    <t>ouid</t>
   </si>
   <si>
     <t>TASK</t>
@@ -321,47 +318,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -369,6 +327,45 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -672,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,15 +682,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,15 +744,15 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -776,8 +773,8 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>29</v>
+      <c r="G7" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,15 +805,15 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -860,15 +857,15 @@
       <c r="G14" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -883,7 +880,7 @@
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="3"/>
@@ -908,15 +905,15 @@
       <c r="G19" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -952,15 +949,15 @@
       <c r="G24" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1005,56 +1002,56 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="29"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -102,10 +102,10 @@
     <t>0,1,2</t>
   </si>
   <si>
-    <t>public, friend, public</t>
-  </si>
-  <si>
     <t>TASK</t>
+  </si>
+  <si>
+    <t>private, friend, public</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
     </row>
     <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -851,7 +851,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>EXP</t>
   </si>
@@ -106,13 +106,25 @@
   </si>
   <si>
     <t>private, friend, public</t>
+  </si>
+  <si>
+    <t>t_order</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>0-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +135,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -304,11 +308,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -317,44 +318,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +346,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,7 +671,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,411 +683,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="33" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="16"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A16:G16"/>
@@ -1094,6 +1105,7 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>EXP</t>
   </si>
@@ -69,9 +69,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>HISTORY</t>
-  </si>
-  <si>
     <t>FRIEND</t>
   </si>
   <si>
@@ -118,6 +115,27 @@
   </si>
   <si>
     <t>0-9</t>
+  </si>
+  <si>
+    <t>evenid</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
+  </si>
+  <si>
+    <t>lastupdate</t>
+  </si>
+  <si>
+    <t>fuid</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>tstamp</t>
+  </si>
+  <si>
+    <t>EVENT</t>
   </si>
 </sst>
 </file>
@@ -308,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -328,6 +346,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,9 +367,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,9 +382,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -668,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,47 +695,48 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -729,10 +745,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -742,7 +758,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -751,18 +767,18 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -782,10 +798,16 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -794,7 +816,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -803,7 +825,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -812,18 +834,18 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -837,47 +859,47 @@
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -893,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -918,18 +940,18 @@
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -937,13 +959,19 @@
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -961,22 +989,22 @@
       <c r="G24" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1003,22 +1031,22 @@
       <c r="G29" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>5</v>
@@ -1033,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,19 +1083,19 @@
       <c r="G34" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1098,14 +1126,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>EXP</t>
   </si>
@@ -72,9 +72,6 @@
     <t>FRIEND</t>
   </si>
   <si>
-    <t>fid</t>
-  </si>
-  <si>
     <t>REPO</t>
   </si>
   <si>
@@ -129,13 +126,28 @@
     <t>fuid</t>
   </si>
   <si>
-    <t>ts</t>
-  </si>
-  <si>
     <t>tstamp</t>
   </si>
   <si>
     <t>EVENT</t>
+  </si>
+  <si>
+    <t>actionid</t>
+  </si>
+  <si>
+    <t>newststamp</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>commentid</t>
+  </si>
+  <si>
+    <t>0:ori</t>
+  </si>
+  <si>
+    <t>tid:repo</t>
   </si>
 </sst>
 </file>
@@ -683,18 +695,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,7 +746,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,7 +761,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,7 +785,7 @@
     </row>
     <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -798,13 +814,13 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,7 +830,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -823,7 +841,9 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -859,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,7 +894,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -885,7 +905,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
@@ -915,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -940,7 +960,7 @@
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -951,7 +971,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -960,23 +980,24 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1032,7 +1053,7 @@
     </row>
     <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1043,10 +1064,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>5</v>
@@ -1061,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,7 +1105,7 @@
     </row>
     <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -1095,7 +1116,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1124,11 +1145,60 @@
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
+    <row r="41" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A41:G41"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A16:G16"/>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="23715" windowHeight="12135"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Event mapping" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>EXP</t>
   </si>
@@ -148,17 +148,81 @@
   </si>
   <si>
     <t>tid:repo</t>
+  </si>
+  <si>
+    <t>actionid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fighto</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>update task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>f follow others</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>other follow u</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>level up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>get how much exp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +230,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,14 +238,14 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,14 +253,14 @@
       <strike/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +268,7 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +277,7 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,8 +285,15 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -338,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -361,24 +432,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,6 +447,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,6 +480,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D23" totalsRowShown="0">
+  <autoFilter ref="A2:D23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="actionid"/>
+    <tableColumn id="2" name="description"/>
+    <tableColumn id="3" name="columns"/>
+    <tableColumn id="4" name="note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,31 +784,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -783,16 +870,16 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -854,16 +941,16 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -910,16 +997,16 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -958,16 +1045,16 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1009,16 +1096,16 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1051,16 +1138,16 @@
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -1103,16 +1190,16 @@
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1145,16 +1232,16 @@
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1205,19 +1292,204 @@
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A26:G26"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1227,8 +1499,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>EXP</t>
   </si>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>reply</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>level up</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -211,6 +207,42 @@
   </si>
   <si>
     <t>Alarm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid1]put comment on [uid2]'s [tid]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid1] @ [uid2] in [tid]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid1] fighto [uid2]'s [tid]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid1] follows [uid2]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid1] shared [tid]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid] updated [tid]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid] level up to x level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid] complete [tid] got count exp</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1303,26 +1335,26 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="F1" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -1342,7 +1374,7 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1352,13 +1384,19 @@
       <c r="B3" t="s">
         <v>46</v>
       </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1368,6 +1406,9 @@
       <c r="B5" t="s">
         <v>48</v>
       </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1376,6 +1417,9 @@
       <c r="B6" t="s">
         <v>52</v>
       </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1384,6 +1428,9 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1392,6 +1439,9 @@
       <c r="B8" t="s">
         <v>49</v>
       </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1400,6 +1450,9 @@
       <c r="B9" t="s">
         <v>50</v>
       </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1408,8 +1461,11 @@
       <c r="B10" t="s">
         <v>51</v>
       </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,7 +1473,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>EXP</t>
   </si>
@@ -158,42 +158,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>columns</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>fighto</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>share task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>update task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>complete task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>f follow others</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>other follow u</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>level up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -210,14 +178,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>@</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>[uid1]put comment on [uid2]'s [tid]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>[uid1] @ [uid2] in [tid]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -243,6 +203,74 @@
   </si>
   <si>
     <t>[uid] complete [tid] got count exp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME comment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>other comment on my task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME @ other</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>other @ me</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me fighto other's task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>other fighto my task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>other follow me</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me share task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uid1]put comment on [uid2]'s [cid]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>myfollow share task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me update task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>myfollow update task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me complete task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>my follow complete task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me level up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>myfollow level up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me follow others</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -515,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D23" totalsRowShown="0">
-  <autoFilter ref="A2:D23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D29" totalsRowShown="0">
+  <autoFilter ref="A2:D29"/>
   <tableColumns count="4">
     <tableColumn id="1" name="actionid"/>
     <tableColumn id="2" name="description"/>
@@ -1332,29 +1360,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="F1" s="33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -1371,172 +1399,220 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -238,39 +238,39 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>myfollow share task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me update task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>myfollow update task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me complete task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>my follow complete task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me level up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>myfollow level up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me follow others</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>[uid1]put comment on [uid2]'s [cid]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>myfollow share task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>me update task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>myfollow update task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>me complete task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>my follow complete task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>me level up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>myfollow level up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>me follow others</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1413,10 +1413,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1435,9 +1435,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -1454,9 +1454,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -1464,18 +1464,18 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>4.3333333333333304</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -1492,39 +1492,39 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>5.3333333333333304</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>6.3333333333333304</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
@@ -1533,41 +1533,41 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>7.3333333333333304</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -234,10 +234,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>me share task</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>myfollow share task</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -271,6 +267,10 @@
   </si>
   <si>
     <t>[uid1]put comment on [uid2]'s [cid]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>me PUBLISH task</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1413,7 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
@@ -1486,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -1497,7 +1497,7 @@
         <v>5.3333333333333304</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -1516,7 +1516,7 @@
         <v>6.3333333333333304</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
@@ -1538,7 +1538,7 @@
         <v>7.3333333333333304</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12132" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="23250" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="Event mapping" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>EXP</t>
   </si>
@@ -271,14 +271,58 @@
   </si>
   <si>
     <t>me PUBLISH task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>task comment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique(only appear once)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fighto</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid1 follows uid2 (uid2 get notified)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,7 +674,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -665,7 +708,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,24 +883,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
@@ -870,7 +912,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
@@ -899,7 +941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -911,7 +953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -921,7 +963,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -930,7 +972,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="22.5">
       <c r="A6" s="22" t="s">
         <v>26</v>
       </c>
@@ -941,7 +983,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,7 +1012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -981,7 +1023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -992,7 +1034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1001,7 +1043,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="22.5">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1054,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1035,7 +1077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1046,7 +1088,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1057,7 +1099,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="22.5">
       <c r="A16" s="27" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1110,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1129,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1096,7 +1138,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1105,7 +1147,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="22.5">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -1116,7 +1158,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1179,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1147,7 +1189,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1156,7 +1198,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="22.5">
       <c r="A26" s="27" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1209,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1222,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1189,7 +1231,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1198,7 +1240,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="22.5">
       <c r="A31" s="30" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1251,7 @@
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="12" t="s">
         <v>19</v>
       </c>
@@ -1232,7 +1274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="14"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1241,7 +1283,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -1250,7 +1292,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="22.5">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1303,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1316,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1283,7 +1325,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1292,7 +1334,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="22.5">
       <c r="A41" s="27" t="s">
         <v>40</v>
       </c>
@@ -1303,7 +1345,7 @@
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1322,7 +1364,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1331,7 +1373,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1359,22 +1401,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="33" t="s">
         <v>49</v>
       </c>
@@ -1391,7 +1436,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1404,8 +1449,20 @@
       <c r="D2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1415,8 +1472,17 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1424,7 +1490,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1434,8 +1500,20 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6">
         <v>2.3333333333333299</v>
       </c>
@@ -1443,7 +1521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1453,8 +1531,20 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8">
         <v>3.3333333333333299</v>
       </c>
@@ -1462,7 +1552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1473,7 +1563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10">
         <v>4.3333333333333304</v>
       </c>
@@ -1481,7 +1571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1492,7 +1582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12">
         <v>5.3333333333333304</v>
       </c>
@@ -1500,7 +1590,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1511,7 +1601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14">
         <v>6.3333333333333304</v>
       </c>
@@ -1519,7 +1609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1533,7 +1623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16">
         <v>7.3333333333333304</v>
       </c>
@@ -1541,7 +1631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1552,7 +1642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1560,57 +1650,57 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1622,19 +1712,20 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/models.xlsx
+++ b/documentation/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="23250" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="21150" windowHeight="9705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>EXP</t>
   </si>
@@ -315,6 +315,14 @@
   </si>
   <si>
     <t>uid1 follows uid2 (uid2 get notified)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline reached</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1404,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1414,7 +1422,7 @@
     <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1561,6 +1569,15 @@
       </c>
       <c r="C9" t="s">
         <v>53</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1">
